--- a/output/fx_metrics.xlsx
+++ b/output/fx_metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>货币汇率</t>
   </si>
@@ -28,15 +28,9 @@
     <t>MoM(%)</t>
   </si>
   <si>
-    <t>MoM参考日期</t>
-  </si>
-  <si>
     <t>YoY(%)</t>
   </si>
   <si>
-    <t>YoY参考日期</t>
-  </si>
-  <si>
     <t>5年均值</t>
   </si>
   <si>
@@ -52,16 +46,10 @@
     <t>CNH_HKD</t>
   </si>
   <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>2020-09 to 2025-09</t>
+    <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>2020-10 to 2025-10</t>
   </si>
 </sst>
 </file>
@@ -419,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,98 +435,74 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>7.1476</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.3862305304700757</v>
+      </c>
+      <c r="E2">
+        <v>0.9120429196668014</v>
+      </c>
+      <c r="F2">
+        <v>6.914079585571757</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>7.7824</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>-0.09114834071506936</v>
+      </c>
+      <c r="E3">
+        <v>0.1621663363278327</v>
+      </c>
+      <c r="F3">
+        <v>7.805082911877395</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>7.1287</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>-0.8870351060132031</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>0.1714325862432374</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>6.906616730621642</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>1.088813028149309</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>7.7947</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>-0.6993986954749281</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>-0.02052255557123025</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>7.804322375478927</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>-0.4755421820926303</v>
+      </c>
+      <c r="E4">
+        <v>-0.7430991997019762</v>
+      </c>
+      <c r="F4">
+        <v>1.131686705218008</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1.093425168684332</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0.1893157073234331</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>-0.1916266313244525</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>1.132775083915489</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
